--- a/DOM_Banner/output/dept_banner/Krisstina Gowin_2023.xlsx
+++ b/DOM_Banner/output/dept_banner/Krisstina Gowin_2023.xlsx
@@ -1227,7 +1227,7 @@
       </c>
       <c r="AF5" t="inlineStr">
         <is>
-          <t>c("https://openalex.org/W4213445964", "https://openalex.org/W2343768426", "https://openalex.org/W1967461244", "https://openalex.org/W2906013683", "https://openalex.org/W2133235702", "https://openalex.org/W2203903734", "https://openalex.org/W2917746345", "https://openalex.org/W2119154902", "https://openalex.org/W1727188710", "https://openalex.org/W2135028155")</t>
+          <t>c("https://openalex.org/W1971636731", "https://openalex.org/W2244988349", "https://openalex.org/W1827273305", "https://openalex.org/W2393517042", "https://openalex.org/W4231880000", "https://openalex.org/W2393397805", "https://openalex.org/W3042504017", "https://openalex.org/W2582959531", "https://openalex.org/W1540236315", "https://openalex.org/W2384740383")</t>
         </is>
       </c>
       <c r="AG5" t="inlineStr">

--- a/DOM_Banner/output/dept_banner/Krisstina Gowin_2023.xlsx
+++ b/DOM_Banner/output/dept_banner/Krisstina Gowin_2023.xlsx
@@ -351,7 +351,7 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:P8"/>
+  <dimension ref="A1:Q8"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
@@ -365,75 +365,80 @@
       </c>
       <c r="B1" s="1" t="inlineStr">
         <is>
+          <t>affiliation</t>
+        </is>
+      </c>
+      <c r="C1" s="1" t="inlineStr">
+        <is>
           <t>id</t>
         </is>
       </c>
-      <c r="C1" s="1" t="inlineStr">
+      <c r="D1" s="1" t="inlineStr">
         <is>
           <t>display_name</t>
         </is>
       </c>
-      <c r="D1" s="1" t="inlineStr">
+      <c r="E1" s="1" t="inlineStr">
         <is>
           <t>publication_date</t>
         </is>
       </c>
-      <c r="E1" s="1" t="inlineStr">
+      <c r="F1" s="1" t="inlineStr">
         <is>
           <t>so</t>
         </is>
       </c>
-      <c r="F1" s="1" t="inlineStr">
+      <c r="G1" s="1" t="inlineStr">
         <is>
           <t>host_organization</t>
         </is>
       </c>
-      <c r="G1" s="1" t="inlineStr">
+      <c r="H1" s="1" t="inlineStr">
         <is>
           <t>url</t>
         </is>
       </c>
-      <c r="H1" s="1" t="inlineStr">
+      <c r="I1" s="1" t="inlineStr">
         <is>
           <t>license</t>
         </is>
       </c>
-      <c r="I1" s="1" t="inlineStr">
+      <c r="J1" s="1" t="inlineStr">
         <is>
           <t>version</t>
         </is>
       </c>
-      <c r="J1" s="1" t="inlineStr">
+      <c r="K1" s="1" t="inlineStr">
         <is>
           <t>oa_status</t>
         </is>
       </c>
-      <c r="K1" s="1" t="inlineStr">
+      <c r="L1" s="1" t="inlineStr">
         <is>
           <t>language</t>
         </is>
       </c>
-      <c r="L1" s="1" t="inlineStr">
+      <c r="M1" s="1" t="inlineStr">
         <is>
           <t>cited_by_count</t>
         </is>
       </c>
-      <c r="M1" s="1" t="inlineStr">
+      <c r="N1" s="1" t="inlineStr">
         <is>
           <t>publication_year</t>
         </is>
       </c>
-      <c r="N1" s="1" t="inlineStr">
+      <c r="O1" s="1" t="inlineStr">
         <is>
           <t>pmid</t>
         </is>
       </c>
-      <c r="O1" s="1" t="inlineStr">
+      <c r="P1" s="1" t="inlineStr">
         <is>
           <t>doi</t>
         </is>
       </c>
-      <c r="P1" s="1" t="inlineStr">
+      <c r="Q1" s="1" t="inlineStr">
         <is>
           <t>type</t>
         </is>
@@ -442,80 +447,85 @@
     <row r="2">
       <c r="A2" t="inlineStr">
         <is>
-          <t>Ulyana Dashkevych, Nishant Munugala, Ishfaq Ahmad, Sharad Khurana, Abhijeet Kumar, Krisstina Gowin, Akshay Amaraneni, Ravitharan Krishnadasan, Jeffrey J. Pu, Emmanuel Katsanis, Muhammad Husnain</t>
+          <t>Onyemaechi Okolo, Betsy C. Wertheim, Ashley Larsen, Nathan W. Sweeney, Jennifer M. Ahlstrom, Krisstina Gowin</t>
         </is>
       </c>
       <c r="B2" t="inlineStr">
         <is>
-          <t>https://openalex.org/W4319263251</t>
+          <t>University of Arizona, Department of Hematology Oncology, Tucson, AZ, USA; University of Arizona Cancer Center, Tucson, AZ, USA; University of Arizona, Department of Medicine, Tucson, AZ, USA; HealthTree Foundation, HealthTree for Multiple Myeloma, Lehi, UT, USA; HealthTree Foundation, HealthTree for Multiple Myeloma, Lehi, UT, USA; University of Arizona, Department of Hematology Oncology, Tucson, AZ, USA</t>
         </is>
       </c>
       <c r="C2" t="inlineStr">
         <is>
-          <t>Role of Anakinra in the Management of Steroid Refractory High Grade Immune Effector Cell-Associated Neurotoxicity Syndrome after Anti-CD 19 CAR-T Cell Therapy, a Single Center Experience</t>
+          <t>https://openalex.org/W4322753814</t>
         </is>
       </c>
       <c r="D2" t="inlineStr">
         <is>
-          <t>2023-02-01</t>
+          <t>Integrative medicine in multiple myeloma and plasma cell disorders</t>
         </is>
       </c>
       <c r="E2" t="inlineStr">
         <is>
-          <t>Transplantation and Cellular Therapy</t>
+          <t>2023-05-01</t>
         </is>
       </c>
       <c r="F2" t="inlineStr">
         <is>
+          <t>Complementary Therapies in Medicine</t>
+        </is>
+      </c>
+      <c r="G2" t="inlineStr">
+        <is>
           <t>Elsevier BV</t>
         </is>
       </c>
-      <c r="G2" t="inlineStr">
-        <is>
-          <t>https://doi.org/10.1016/s2666-6367(23)00257-9</t>
-        </is>
-      </c>
       <c r="H2" t="inlineStr">
         <is>
+          <t>https://doi.org/10.1016/j.ctim.2023.102939</t>
+        </is>
+      </c>
+      <c r="I2" t="inlineStr">
+        <is>
           <t>cc-by-nc-nd</t>
         </is>
       </c>
-      <c r="I2" t="inlineStr">
+      <c r="J2" t="inlineStr">
         <is>
           <t>publishedVersion</t>
         </is>
       </c>
-      <c r="J2" t="inlineStr">
-        <is>
-          <t>hybrid</t>
-        </is>
-      </c>
       <c r="K2" t="inlineStr">
         <is>
+          <t>gold</t>
+        </is>
+      </c>
+      <c r="L2" t="inlineStr">
+        <is>
           <t>en</t>
         </is>
       </c>
-      <c r="L2" t="inlineStr">
-        <is>
-          <t>0</t>
-        </is>
-      </c>
       <c r="M2" t="inlineStr">
         <is>
+          <t>1</t>
+        </is>
+      </c>
+      <c r="N2" t="inlineStr">
+        <is>
           <t>2023</t>
         </is>
       </c>
-      <c r="N2" t="inlineStr">
-        <is>
-          <t>NA</t>
-        </is>
-      </c>
       <c r="O2" t="inlineStr">
         <is>
-          <t>https://doi.org/10.1016/s2666-6367(23)00257-9</t>
+          <t>https://pubmed.ncbi.nlm.nih.gov/36868288</t>
         </is>
       </c>
       <c r="P2" t="inlineStr">
+        <is>
+          <t>https://doi.org/10.1016/j.ctim.2023.102939</t>
+        </is>
+      </c>
+      <c r="Q2" t="inlineStr">
         <is>
           <t>article</t>
         </is>
@@ -524,80 +534,85 @@
     <row r="3">
       <c r="A3" t="inlineStr">
         <is>
-          <t>Onyemaechi Okolo, Betsy C. Wertheim, Ashley Larsen, Nathan W. Sweeney, Jennifer M. Ahlstrom, Krisstina Gowin</t>
+          <t>Ulyana Dashkevych, Nishant Munugala, Ishfaq Ahmad, Sharad Khurana, Abhijeet Kumar, Krisstina Gowin, Akshay Amaraneni, Ravitharan Krishnadasan, Jeffrey J. Pu, Emmanuel Katsanis, Muhammad Husnain</t>
         </is>
       </c>
       <c r="B3" t="inlineStr">
         <is>
-          <t>https://openalex.org/W4322753814</t>
+          <t xml:space="preserve">; ; ; ; ; ; ; ; ; ; </t>
         </is>
       </c>
       <c r="C3" t="inlineStr">
         <is>
-          <t>Integrative medicine in multiple myeloma and plasma cell disorders</t>
+          <t>https://openalex.org/W4319263251</t>
         </is>
       </c>
       <c r="D3" t="inlineStr">
         <is>
-          <t>2023-05-01</t>
+          <t>Role of Anakinra in the Management of Steroid Refractory High Grade Immune Effector Cell-Associated Neurotoxicity Syndrome after Anti-CD 19 CAR-T Cell Therapy, a Single Center Experience</t>
         </is>
       </c>
       <c r="E3" t="inlineStr">
         <is>
-          <t>Complementary Therapies in Medicine</t>
+          <t>2023-02-01</t>
         </is>
       </c>
       <c r="F3" t="inlineStr">
         <is>
+          <t>Transplantation and Cellular Therapy</t>
+        </is>
+      </c>
+      <c r="G3" t="inlineStr">
+        <is>
           <t>Elsevier BV</t>
         </is>
       </c>
-      <c r="G3" t="inlineStr">
-        <is>
-          <t>https://doi.org/10.1016/j.ctim.2023.102939</t>
-        </is>
-      </c>
       <c r="H3" t="inlineStr">
         <is>
+          <t>https://doi.org/10.1016/s2666-6367(23)00257-9</t>
+        </is>
+      </c>
+      <c r="I3" t="inlineStr">
+        <is>
           <t>cc-by-nc-nd</t>
         </is>
       </c>
-      <c r="I3" t="inlineStr">
+      <c r="J3" t="inlineStr">
         <is>
           <t>publishedVersion</t>
         </is>
       </c>
-      <c r="J3" t="inlineStr">
-        <is>
-          <t>gold</t>
-        </is>
-      </c>
       <c r="K3" t="inlineStr">
         <is>
+          <t>hybrid</t>
+        </is>
+      </c>
+      <c r="L3" t="inlineStr">
+        <is>
           <t>en</t>
         </is>
       </c>
-      <c r="L3" t="inlineStr">
+      <c r="M3" t="inlineStr">
         <is>
           <t>0</t>
         </is>
       </c>
-      <c r="M3" t="inlineStr">
+      <c r="N3" t="inlineStr">
         <is>
           <t>2023</t>
         </is>
       </c>
-      <c r="N3" t="inlineStr">
-        <is>
-          <t>https://pubmed.ncbi.nlm.nih.gov/36868288</t>
-        </is>
-      </c>
       <c r="O3" t="inlineStr">
         <is>
-          <t>https://doi.org/10.1016/j.ctim.2023.102939</t>
+          <t>NA</t>
         </is>
       </c>
       <c r="P3" t="inlineStr">
+        <is>
+          <t>https://doi.org/10.1016/s2666-6367(23)00257-9</t>
+        </is>
+      </c>
+      <c r="Q3" t="inlineStr">
         <is>
           <t>article</t>
         </is>
@@ -611,75 +626,80 @@
       </c>
       <c r="B4" t="inlineStr">
         <is>
+          <t>University of Arizona, Tucson, AZ, USA; University of Arizona, Phoenix, AZ, USA; University of Arizona, Tucson, AZ, USA; University of Arizona, Tucson, AZ, USA</t>
+        </is>
+      </c>
+      <c r="C4" t="inlineStr">
+        <is>
           <t>https://openalex.org/W4323348842</t>
         </is>
       </c>
-      <c r="C4" t="inlineStr">
+      <c r="D4" t="inlineStr">
         <is>
           <t>A Review of The Synergistic Effects of Curcumin with Proteasome Inhibitors in Multiple Myeloma Preclinical Models</t>
         </is>
       </c>
-      <c r="D4" t="inlineStr">
+      <c r="E4" t="inlineStr">
         <is>
           <t>2023-01-01</t>
         </is>
       </c>
-      <c r="E4" t="inlineStr">
+      <c r="F4" t="inlineStr">
         <is>
           <t>Integrative Cancer Therapies</t>
         </is>
       </c>
-      <c r="F4" t="inlineStr">
+      <c r="G4" t="inlineStr">
         <is>
           <t>SAGE Publishing</t>
         </is>
       </c>
-      <c r="G4" t="inlineStr">
+      <c r="H4" t="inlineStr">
         <is>
           <t>https://doi.org/10.1177/15347354231159322</t>
         </is>
       </c>
-      <c r="H4" t="inlineStr">
+      <c r="I4" t="inlineStr">
         <is>
           <t>cc-by-nc</t>
         </is>
       </c>
-      <c r="I4" t="inlineStr">
+      <c r="J4" t="inlineStr">
         <is>
           <t>publishedVersion</t>
         </is>
       </c>
-      <c r="J4" t="inlineStr">
+      <c r="K4" t="inlineStr">
         <is>
           <t>green</t>
         </is>
       </c>
-      <c r="K4" t="inlineStr">
+      <c r="L4" t="inlineStr">
         <is>
           <t>en</t>
         </is>
       </c>
-      <c r="L4" t="inlineStr">
+      <c r="M4" t="inlineStr">
         <is>
           <t>0</t>
         </is>
       </c>
-      <c r="M4" t="inlineStr">
+      <c r="N4" t="inlineStr">
         <is>
           <t>2023</t>
         </is>
       </c>
-      <c r="N4" t="inlineStr">
+      <c r="O4" t="inlineStr">
         <is>
           <t>https://pubmed.ncbi.nlm.nih.gov/36879488</t>
         </is>
       </c>
-      <c r="O4" t="inlineStr">
+      <c r="P4" t="inlineStr">
         <is>
           <t>https://doi.org/10.1177/15347354231159322</t>
         </is>
       </c>
-      <c r="P4" t="inlineStr">
+      <c r="Q4" t="inlineStr">
         <is>
           <t>article</t>
         </is>
@@ -693,75 +713,80 @@
       </c>
       <c r="B5" t="inlineStr">
         <is>
+          <t>The University of Arizona Cancer Center, Arizona, AZ; University of Arizona Cancer Center, Tucson, AZ; University of Arizona Cancer Center, Tucson, AZ; University of Arizona Cancer Center, Tucson, AZ; The University of Utah Huntsman Cancer Institute, Salt Lake City, UT; Department of Internal Medicine, University of Utah, Salt Lake City, UT; Fred Hutchinson Cancer Research Center, Seattle, WA; University of Washington, Seattle, WA; Stanford Cancer Center, Stanford, CA; Brigham and Women's Hospital, Boston, MA; UMass Memorial Medical Center, Worcester, MA; Dana-Farber Cancer Institute, Harvard Medical School, Boston, MA; Oregon Health &amp; Science University, Portland, OR; Oregon Health &amp; Science University, Portland, OR; OHSU Knight Cancer Institute, Portland, OR; Sylvester Comprehensive Cancer Center, Miami, FL; University of Wisconsin School of Medicine and Public Health, Madison, WI; University of Wisconsin-Madison Carbone Cancer Center, Madison, WI; University of California San Francisco, San Francisco, CA; University of Arizona Cancer Center, Tucson, AZ</t>
+        </is>
+      </c>
+      <c r="C5" t="inlineStr">
+        <is>
           <t>https://openalex.org/W4379281244</t>
         </is>
       </c>
-      <c r="C5" t="inlineStr">
+      <c r="D5" t="inlineStr">
         <is>
           <t>Plasma cell leukemia: A multicenter retrospective study of 150 patients.</t>
         </is>
       </c>
-      <c r="D5" t="inlineStr">
+      <c r="E5" t="inlineStr">
         <is>
           <t>2023-06-01</t>
         </is>
       </c>
-      <c r="E5" t="inlineStr">
+      <c r="F5" t="inlineStr">
         <is>
           <t>Journal of Clinical Oncology</t>
         </is>
       </c>
-      <c r="F5" t="inlineStr">
+      <c r="G5" t="inlineStr">
         <is>
           <t>Lippincott Williams &amp; Wilkins</t>
         </is>
       </c>
-      <c r="G5" t="inlineStr">
+      <c r="H5" t="inlineStr">
         <is>
           <t>https://doi.org/10.1200/jco.2023.41.16_suppl.8014</t>
         </is>
       </c>
-      <c r="H5" t="inlineStr">
+      <c r="I5" t="inlineStr">
         <is>
           <t>N/A</t>
         </is>
       </c>
-      <c r="I5" t="inlineStr">
+      <c r="J5" t="inlineStr">
         <is>
           <t>N/A</t>
         </is>
       </c>
-      <c r="J5" t="inlineStr">
+      <c r="K5" t="inlineStr">
         <is>
           <t>closed</t>
         </is>
       </c>
-      <c r="K5" t="inlineStr">
+      <c r="L5" t="inlineStr">
         <is>
           <t>en</t>
         </is>
       </c>
-      <c r="L5" t="inlineStr">
+      <c r="M5" t="inlineStr">
         <is>
           <t>0</t>
         </is>
       </c>
-      <c r="M5" t="inlineStr">
+      <c r="N5" t="inlineStr">
         <is>
           <t>2023</t>
         </is>
       </c>
-      <c r="N5" t="inlineStr">
+      <c r="O5" t="inlineStr">
         <is>
           <t>NA</t>
         </is>
       </c>
-      <c r="O5" t="inlineStr">
+      <c r="P5" t="inlineStr">
         <is>
           <t>https://doi.org/10.1200/jco.2023.41.16_suppl.8014</t>
         </is>
       </c>
-      <c r="P5" t="inlineStr">
+      <c r="Q5" t="inlineStr">
         <is>
           <t>article</t>
         </is>
@@ -775,75 +800,80 @@
       </c>
       <c r="B6" t="inlineStr">
         <is>
+          <t xml:space="preserve">; ; ; ; ; ; ; ; ; ; ; </t>
+        </is>
+      </c>
+      <c r="C6" t="inlineStr">
+        <is>
           <t>https://openalex.org/W4387003717</t>
         </is>
       </c>
-      <c r="C6" t="inlineStr">
+      <c r="D6" t="inlineStr">
         <is>
           <t>P-245 Belantamab mafodotin in patients with severely impaired renal function: a phase I, 2-part study to evaluate pharmacokinetics, safety and efficacy in patients with relapsed/refractory multiple myeloma</t>
         </is>
       </c>
-      <c r="D6" t="inlineStr">
+      <c r="E6" t="inlineStr">
         <is>
           <t>2023-09-01</t>
         </is>
       </c>
-      <c r="E6" t="inlineStr">
+      <c r="F6" t="inlineStr">
         <is>
           <t>Clinical Lymphoma, Myeloma &amp; Leukemia</t>
         </is>
       </c>
-      <c r="F6" t="inlineStr">
+      <c r="G6" t="inlineStr">
         <is>
           <t>Elsevier BV</t>
         </is>
       </c>
-      <c r="G6" t="inlineStr">
+      <c r="H6" t="inlineStr">
         <is>
           <t>https://doi.org/10.1016/s2152-2650(23)01863-3</t>
         </is>
       </c>
-      <c r="H6" t="inlineStr">
+      <c r="I6" t="inlineStr">
         <is>
           <t>N/A</t>
         </is>
       </c>
-      <c r="I6" t="inlineStr">
+      <c r="J6" t="inlineStr">
         <is>
           <t>publishedVersion</t>
         </is>
       </c>
-      <c r="J6" t="inlineStr">
+      <c r="K6" t="inlineStr">
         <is>
           <t>bronze</t>
         </is>
       </c>
-      <c r="K6" t="inlineStr">
+      <c r="L6" t="inlineStr">
         <is>
           <t>en</t>
         </is>
       </c>
-      <c r="L6" t="inlineStr">
+      <c r="M6" t="inlineStr">
         <is>
           <t>0</t>
         </is>
       </c>
-      <c r="M6" t="inlineStr">
+      <c r="N6" t="inlineStr">
         <is>
           <t>2023</t>
         </is>
       </c>
-      <c r="N6" t="inlineStr">
+      <c r="O6" t="inlineStr">
         <is>
           <t>NA</t>
         </is>
       </c>
-      <c r="O6" t="inlineStr">
+      <c r="P6" t="inlineStr">
         <is>
           <t>https://doi.org/10.1016/s2152-2650(23)01863-3</t>
         </is>
       </c>
-      <c r="P6" t="inlineStr">
+      <c r="Q6" t="inlineStr">
         <is>
           <t>article</t>
         </is>
@@ -857,75 +887,80 @@
       </c>
       <c r="B7" t="inlineStr">
         <is>
+          <t>1Barbara Ann Karmanos Cancer Institute / Wayne State University School of Medicine, Detroit, MI; 2The Ohio State University Comprehensive Cancer Center, Columbus, OH; 3Department of Data Science, Dana-Farber Cancer Institute, Harvard Medical School, Boston, MA; 4Myeloma Service, Department of Medicine, Memorial Sloan Kettering Cancer Center, New York, NY; 5Simmons Comprehensive Cancer Center, UT Southwestern Medical Center, Dallas, TX; 6Department of Medical Oncology, Dana-Farber Cancer Institute, Jerome Lipper Center for Multiple Myeloma Research, Harvard Medical School, Boston, MA; 7Department of Medical Oncology, Dana-Farber Cancer Institute, Boston, MA; 8Division of Blood and Marrow Transplant/Hematology, OhioHealth, Columbus, OH; 9Gibbs Cancer Center &amp; Research Institute, Spartanburg, SC; 10Alabama Oncology, University of Alabama at Birmingham, Birmingham, AL; 6Department of Medical Oncology, Dana-Farber Cancer Institute, Jerome Lipper Center for Multiple Myeloma Research, Harvard Medical School, Boston, MA; 11Department of Hematology and Medical Oncology, Winship Cancer Institute of Emory University, Atlanta, GA; 12Division of Hematology and Oncology, Department of Internal Medicine, University of Michigan, Ann Arbor, MI; 13Department of Hematologic Oncology and Blood Disorders, Levine Cancer Institute, Atrium Health, Charlotte, NC; 14Department of Lymphoma/Myeloma, The University of Texas MD Anderson Cancer Center, Houston, TX; 15University of Washington, Division of Medical Oncology and Fred Hutchinson Cancer Center, Seattle, WA; 16Section of Hematology and Oncology, Atrium Health Wake Forest Baptist Medical Center, Winston-Salem, NC; 17Moores Cancer Center at University of California San Diego, San Diego, CA; 18Center for Multiple Myeloma, Massachusetts General Hospital, Boston, MA; 19Knight Cancer Institute, Oregon Health &amp; Science University, Portland, OR; 20Department of Medicine, Roswell Park Comprehensive Cancer Center, Buffalo, New York, NY; 21Division of Hematology and Oncology, University of Mississippi Medical Center, Jackson, MS; 22Duke Cancer Institute, Durham, NC; 23UPMC Hillman Cancer Center, Pittsburgh, PA; 24University of Arizona Cancer Center, UA College of Medicine, Tucson, AZ; 25Center for Cell and Gene Therapy, Baylor College of Medicine and Houston Methodist Hospital, Houston, TX; 26Mount Sinai Medical Center, New York, NY; 27Judy and Bernard Briskin Center for Multiple Myeloma Research, City of Hope Comprehensive Cancer Center, Duarte, CA; 28Department of Blood and Marrow Transplant and Cellular Immunotherapy, H. Lee Moffitt Cancer Center and Research Institute, Tampa, FL; 4Myeloma Service, Department of Medicine, Memorial Sloan Kettering Cancer Center, New York, NY; 6Department of Medical Oncology, Dana-Farber Cancer Institute, Jerome Lipper Center for Multiple Myeloma Research, Harvard Medical School, Boston, MA; 6Department of Medical Oncology, Dana-Farber Cancer Institute, Jerome Lipper Center for Multiple Myeloma Research, Harvard Medical School, Boston, MA; 6Department of Medical Oncology, Dana-Farber Cancer Institute, Jerome Lipper Center for Multiple Myeloma Research, Harvard Medical School, Boston, MA; 6Department of Medical Oncology, Dana-Farber Cancer Institute, Jerome Lipper Center for Multiple Myeloma Research, Harvard Medical School, Boston, MA; 6Department of Medical Oncology, Dana-Farber Cancer Institute, Jerome Lipper Center for Multiple Myeloma Research, Harvard Medical School, Boston, MA; 29Dana-Farber Cancer Institute, Harvard Medical School, The Jerome Lipper Multiple Myeloma Center, Boston, MA; 29Dana-Farber Cancer Institute, Harvard Medical School, The Jerome Lipper Multiple Myeloma Center, Boston, MA; 6Department of Medical Oncology, Dana-Farber Cancer Institute, Jerome Lipper Center for Multiple Myeloma Research, Harvard Medical School, Boston, MA</t>
+        </is>
+      </c>
+      <c r="C7" t="inlineStr">
+        <is>
           <t>https://openalex.org/W4389220712</t>
         </is>
       </c>
-      <c r="C7" t="inlineStr">
+      <c r="D7" t="inlineStr">
         <is>
           <t>Treatment Outcomes and Prognostic Factors with Lenalidomide, Bortezomib, and Dexamethasone (RVd) Alone Versus Rvd Plus Autologous Stem Cell Transplantation (ASCT) in African American (AA) Patients (Pts) with Newly Diagnosed Multiple Myeloma (NDMM) in the Determination Phase 3 Trial</t>
         </is>
       </c>
-      <c r="D7" t="inlineStr">
+      <c r="E7" t="inlineStr">
         <is>
           <t>2023-11-28</t>
         </is>
       </c>
-      <c r="E7" t="inlineStr">
+      <c r="F7" t="inlineStr">
         <is>
           <t>Blood</t>
         </is>
       </c>
-      <c r="F7" t="inlineStr">
+      <c r="G7" t="inlineStr">
         <is>
           <t>Elsevier BV</t>
         </is>
       </c>
-      <c r="G7" t="inlineStr">
+      <c r="H7" t="inlineStr">
         <is>
           <t>https://doi.org/10.1182/blood-2023-181032</t>
         </is>
       </c>
-      <c r="H7" t="inlineStr">
+      <c r="I7" t="inlineStr">
         <is>
           <t>N/A</t>
         </is>
       </c>
-      <c r="I7" t="inlineStr">
+      <c r="J7" t="inlineStr">
         <is>
           <t>publishedVersion</t>
         </is>
       </c>
-      <c r="J7" t="inlineStr">
+      <c r="K7" t="inlineStr">
         <is>
           <t>bronze</t>
         </is>
       </c>
-      <c r="K7" t="inlineStr">
+      <c r="L7" t="inlineStr">
         <is>
           <t>en</t>
         </is>
       </c>
-      <c r="L7" t="inlineStr">
+      <c r="M7" t="inlineStr">
         <is>
           <t>0</t>
         </is>
       </c>
-      <c r="M7" t="inlineStr">
+      <c r="N7" t="inlineStr">
         <is>
           <t>2023</t>
         </is>
       </c>
-      <c r="N7" t="inlineStr">
+      <c r="O7" t="inlineStr">
         <is>
           <t>NA</t>
         </is>
       </c>
-      <c r="O7" t="inlineStr">
+      <c r="P7" t="inlineStr">
         <is>
           <t>https://doi.org/10.1182/blood-2023-181032</t>
         </is>
       </c>
-      <c r="P7" t="inlineStr">
+      <c r="Q7" t="inlineStr">
         <is>
           <t>article</t>
         </is>
@@ -939,75 +974,80 @@
       </c>
       <c r="B8" t="inlineStr">
         <is>
+          <t>Department of Medicine, Midwestern University Internal Medicine Residency Consortium, Cottonwood, AZ 86326, USA; Department of Medicine, University of Arizona Health Sciences, Tucson, AZ 85701, USA; Division of Hematology and Oncology, Department of Medicine, University of Arizona Cancer Center, Tucson, AZ 85701, USA; Division of Hematology and Oncology, Department of Medicine, University of Arizona Cancer Center, Tucson, AZ 85701, USA</t>
+        </is>
+      </c>
+      <c r="C8" t="inlineStr">
+        <is>
           <t>https://openalex.org/W4389623442</t>
         </is>
       </c>
-      <c r="C8" t="inlineStr">
+      <c r="D8" t="inlineStr">
         <is>
           <t>Myeloproliferative Neoplasms: Contemporary Review and Molecular Landscape</t>
         </is>
       </c>
-      <c r="D8" t="inlineStr">
+      <c r="E8" t="inlineStr">
         <is>
           <t>2023-12-12</t>
         </is>
       </c>
-      <c r="E8" t="inlineStr">
+      <c r="F8" t="inlineStr">
         <is>
           <t>International Journal of Molecular Sciences</t>
         </is>
       </c>
-      <c r="F8" t="inlineStr">
+      <c r="G8" t="inlineStr">
         <is>
           <t>Multidisciplinary Digital Publishing Institute</t>
         </is>
       </c>
-      <c r="G8" t="inlineStr">
+      <c r="H8" t="inlineStr">
         <is>
           <t>https://doi.org/10.3390/ijms242417383</t>
         </is>
       </c>
-      <c r="H8" t="inlineStr">
+      <c r="I8" t="inlineStr">
         <is>
           <t>cc-by</t>
         </is>
       </c>
-      <c r="I8" t="inlineStr">
+      <c r="J8" t="inlineStr">
         <is>
           <t>publishedVersion</t>
         </is>
       </c>
-      <c r="J8" t="inlineStr">
+      <c r="K8" t="inlineStr">
         <is>
           <t>gold</t>
         </is>
       </c>
-      <c r="K8" t="inlineStr">
+      <c r="L8" t="inlineStr">
         <is>
           <t>en</t>
         </is>
       </c>
-      <c r="L8" t="inlineStr">
+      <c r="M8" t="inlineStr">
         <is>
           <t>0</t>
         </is>
       </c>
-      <c r="M8" t="inlineStr">
+      <c r="N8" t="inlineStr">
         <is>
           <t>2023</t>
         </is>
       </c>
-      <c r="N8" t="inlineStr">
+      <c r="O8" t="inlineStr">
         <is>
           <t>https://pubmed.ncbi.nlm.nih.gov/38139212</t>
         </is>
       </c>
-      <c r="O8" t="inlineStr">
+      <c r="P8" t="inlineStr">
         <is>
           <t>https://doi.org/10.3390/ijms242417383</t>
         </is>
       </c>
-      <c r="P8" t="inlineStr">
+      <c r="Q8" t="inlineStr">
         <is>
           <t>article</t>
         </is>
